--- a/Dataset/15/낮과밤_학습(15)/낮과밤11.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA3B57A-90C8-40F4-A3D2-55691266ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88357A3C-BA06-48AB-9F27-2B9186CD10BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2983" yWindow="2983" windowWidth="16328" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4713,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4755,7 +4755,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4770,11 +4769,10 @@
         <v>1.478742249310017E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4789,11 +4787,10 @@
         <v>9.016987681388855E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4808,11 +4805,10 @@
         <v>1.4450228773057461E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4827,11 +4823,10 @@
         <v>1.5639970079064369E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4846,11 +4841,10 @@
         <v>4.0500517934560783E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4865,11 +4859,10 @@
         <v>0.56589215993881226</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -4887,11 +4880,10 @@
         <v>1.447270438075066E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4906,11 +4898,10 @@
         <v>1.438261941075325E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4925,11 +4916,10 @@
         <v>4.3977431952953339E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4944,11 +4934,10 @@
         <v>1.4241619035601619E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4963,11 +4952,10 @@
         <v>1.427422929555178E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4982,11 +4970,10 @@
         <v>0.98896628618240356</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -5004,11 +4991,10 @@
         <v>1.437167264521122E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5023,11 +5009,10 @@
         <v>1.432904787361622E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5042,11 +5027,10 @@
         <v>1.438261941075325E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5061,11 +5045,10 @@
         <v>1.4531399123370649E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5080,11 +5063,10 @@
         <v>3.5984199494123459E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5099,11 +5081,10 @@
         <v>1.4904395677149299E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5118,11 +5099,10 @@
         <v>4.4466763734817498E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5137,11 +5117,10 @@
         <v>0.98804956674575806</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22">
@@ -5159,11 +5138,10 @@
         <v>1.454587560147047E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5178,11 +5156,10 @@
         <v>0.57611542940139771</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -5200,11 +5177,10 @@
         <v>1.446164958178997E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5219,11 +5195,10 @@
         <v>1.4178796671330931E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5238,11 +5213,10 @@
         <v>1.453416608273983E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5257,11 +5231,10 @@
         <v>0.99058645963668823</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5276,11 +5249,10 @@
         <v>1.4350102283060551E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5295,11 +5267,10 @@
         <v>1.4300385490059851E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5314,11 +5285,10 @@
         <v>1.44422659650445E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5333,11 +5303,10 @@
         <v>1.472096145153046E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5352,11 +5321,10 @@
         <v>1.5295348130166531E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5371,11 +5339,10 @@
         <v>2.4366285651922229E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5390,11 +5357,10 @@
         <v>1.4858720824122431E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5409,11 +5375,10 @@
         <v>1.5940763056278229E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5428,11 +5393,10 @@
         <v>1.4784803614020349E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5447,11 +5411,10 @@
         <v>1.4539807103574279E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5466,11 +5429,10 @@
         <v>1.48040410131216E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5485,11 +5447,10 @@
         <v>2.6107648387551311E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5504,11 +5465,10 @@
         <v>1.46181620657444E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5523,11 +5483,10 @@
         <v>4.8695135861635208E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5542,11 +5501,10 @@
         <v>3.6887936294078827E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5561,11 +5519,10 @@
         <v>1.4246633276343351E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5580,11 +5537,10 @@
         <v>1.4334887266159059E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5599,11 +5555,10 @@
         <v>1.491024997085333E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5618,11 +5573,10 @@
         <v>1.424045395106077E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5637,11 +5591,10 @@
         <v>1.445390377193689E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5656,11 +5609,10 @@
         <v>1.8888924270868301E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5675,11 +5627,10 @@
         <v>1.4185504056513309E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5694,11 +5645,10 @@
         <v>1.420084200799465E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5713,11 +5663,10 @@
         <v>1.423180848360062E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5732,11 +5681,10 @@
         <v>1.4216337352991101E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5751,11 +5699,10 @@
         <v>0.99054151773452759</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5770,11 +5717,10 @@
         <v>1.592693850398064E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5789,11 +5735,10 @@
         <v>3.4449417144060128E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5808,11 +5753,10 @@
         <v>2.0431879907846451E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5827,11 +5771,10 @@
         <v>1.432236842811108E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5846,11 +5789,10 @@
         <v>1.4603422954678541E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5865,11 +5807,10 @@
         <v>1.4323916286230091E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5884,11 +5825,10 @@
         <v>0.99060529470443726</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5903,11 +5843,10 @@
         <v>0.95119988918304443</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5922,11 +5861,10 @@
         <v>1.436577085405588E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5941,11 +5879,10 @@
         <v>1.419448759406805E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5960,11 +5897,10 @@
         <v>1.4734461903572081E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5979,11 +5915,10 @@
         <v>1.6378294676542279E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -5998,11 +5933,10 @@
         <v>1.5498918481171129E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6017,11 +5951,10 @@
         <v>0.98988664150238037</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F68">
@@ -6039,11 +5972,10 @@
         <v>0.24381054937839511</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6058,11 +5990,10 @@
         <v>1.419498864561319E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6077,11 +6008,10 @@
         <v>4.3618388473987579E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6096,11 +6026,10 @@
         <v>1.494563277810812E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6115,11 +6044,10 @@
         <v>1.726157404482365E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6134,11 +6062,10 @@
         <v>1.506944373250008E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6153,11 +6080,10 @@
         <v>9.1342896223068237E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6172,11 +6098,10 @@
         <v>1.419317349791527E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6191,11 +6116,10 @@
         <v>1.4518682844936849E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6210,11 +6134,10 @@
         <v>1.6344090923666951E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6229,11 +6152,10 @@
         <v>1.598623022437096E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6248,11 +6170,10 @@
         <v>2.4740101769566539E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6267,11 +6188,10 @@
         <v>0.33083680272102362</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6286,11 +6206,10 @@
         <v>1.476349588483572E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6305,11 +6224,10 @@
         <v>1.4251569285988809E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6324,11 +6242,10 @@
         <v>1.4216490089893339E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6343,11 +6260,10 @@
         <v>1.448267791420221E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6362,11 +6278,10 @@
         <v>0.83959323167800903</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F86">
@@ -6384,11 +6299,10 @@
         <v>1.4403521083295351E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6403,11 +6317,10 @@
         <v>1.4321970753371721E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6422,11 +6335,10 @@
         <v>1.427575945854187E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6441,11 +6353,10 @@
         <v>4.4994115829467773E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6460,11 +6371,10 @@
         <v>1.751151122152805E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6479,11 +6389,10 @@
         <v>0.13632707297801969</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6498,11 +6407,10 @@
         <v>1.5296074561774731E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6517,11 +6425,10 @@
         <v>2.9834341257810589E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6536,11 +6443,10 @@
         <v>0.90462213754653931</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F95">
@@ -6558,11 +6464,10 @@
         <v>1.9069051370024681E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6577,11 +6482,10 @@
         <v>1.527208182960749E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6596,11 +6500,10 @@
         <v>1.649727858603001E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6615,11 +6518,10 @@
         <v>3.3026415854692459E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6634,11 +6536,10 @@
         <v>0.99063020944595337</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F100">
@@ -6656,11 +6557,10 @@
         <v>1.5758447349071499E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6675,11 +6575,10 @@
         <v>0.56427532434463501</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F102">
@@ -6697,11 +6596,10 @@
         <v>1.53493843972683E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6716,11 +6614,10 @@
         <v>1.4764390885829931E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6735,11 +6632,10 @@
         <v>1.4386622235178949E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6754,11 +6650,10 @@
         <v>1.6125040128827099E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6773,11 +6668,10 @@
         <v>1.4360695146024231E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6792,11 +6686,10 @@
         <v>1.460790541023016E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6811,11 +6704,10 @@
         <v>3.3452488481998437E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6830,11 +6722,10 @@
         <v>2.5485709309577938E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6849,11 +6740,10 @@
         <v>1.462084148079157E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6868,11 +6758,10 @@
         <v>1.4298477210104471E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6887,11 +6776,10 @@
         <v>1.7750095576047901E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6906,11 +6794,10 @@
         <v>1.42512209713459E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6925,11 +6812,10 @@
         <v>1.4356160536408419E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6944,11 +6830,10 @@
         <v>1.4235455542802811E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6963,11 +6848,10 @@
         <v>1.4315705746412281E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6982,11 +6866,10 @@
         <v>1.48581899702549E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7001,11 +6884,10 @@
         <v>2.6301434263587001E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7020,11 +6902,10 @@
         <v>1.431670878082514E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7039,11 +6920,10 @@
         <v>7.2982527315616608E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7058,11 +6938,10 @@
         <v>0.92000508308410645</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F122">
@@ -7080,11 +6959,10 @@
         <v>0.98920691013336182</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F123">
@@ -7102,11 +6980,10 @@
         <v>0.97949928045272827</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7121,11 +6998,10 @@
         <v>1.453152950853109E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7140,11 +7016,10 @@
         <v>0.99059361219406128</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7159,11 +7034,10 @@
         <v>1.4246358536183831E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7178,11 +7052,10 @@
         <v>1.5364136546850199E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7197,11 +7070,10 @@
         <v>1.432370860129595E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7216,11 +7088,10 @@
         <v>1.4203164726495739E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7235,11 +7106,10 @@
         <v>1.4662902802228929E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7254,11 +7124,10 @@
         <v>4.225611686706543E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7273,11 +7142,10 @@
         <v>1.7707165330648419E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7292,11 +7160,10 @@
         <v>4.4231336563825607E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7311,11 +7178,10 @@
         <v>1.4264899305999281E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7330,11 +7196,10 @@
         <v>1.5782041475176811E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7349,11 +7214,10 @@
         <v>1.5533436089754099E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7368,11 +7232,10 @@
         <v>1.433533895760775E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7387,11 +7250,10 @@
         <v>3.093788214027882E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7406,11 +7268,10 @@
         <v>1.43358102068305E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7425,11 +7286,10 @@
         <v>1.500580832362175E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7444,11 +7304,10 @@
         <v>3.6036357283592217E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7463,11 +7322,10 @@
         <v>1.470156852155924E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7482,11 +7340,10 @@
         <v>1.4449807815253729E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7501,11 +7358,10 @@
         <v>3.9041146636009223E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7520,11 +7376,10 @@
         <v>0.99027550220489502</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F146">
@@ -7542,11 +7397,10 @@
         <v>1.421600859612226E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7561,11 +7415,10 @@
         <v>5.4354961961507797E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7580,11 +7433,10 @@
         <v>1.4194687828421589E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7599,11 +7451,10 @@
         <v>2.6171533390879631E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7618,11 +7469,10 @@
         <v>1.55658507719636E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7637,11 +7487,10 @@
         <v>0.33109930157661438</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7656,11 +7505,10 @@
         <v>1.41961956396699E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7675,11 +7523,10 @@
         <v>1.4360114000737671E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7694,11 +7541,10 @@
         <v>1.4289414510130881E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7713,11 +7559,10 @@
         <v>1.463238801807165E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7732,11 +7577,10 @@
         <v>7.0739366114139557E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7751,11 +7595,10 @@
         <v>1.530823111534119E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7770,11 +7613,10 @@
         <v>1.4359789900481699E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7789,11 +7631,10 @@
         <v>0.53900432586669922</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F160">
@@ -7811,11 +7652,10 @@
         <v>1.455726847052574E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7830,11 +7670,10 @@
         <v>1.427796762436628E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7849,11 +7688,10 @@
         <v>1.4337778091430661E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,11 +7706,10 @@
         <v>1.4232616871595379E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7887,11 +7724,10 @@
         <v>1.4877362176775931E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7906,11 +7742,10 @@
         <v>1.5385684557259079E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7925,11 +7760,10 @@
         <v>2.744722738862038E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7944,11 +7778,10 @@
         <v>1.4896047301590439E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7963,11 +7796,10 @@
         <v>0.13950243592262271</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7982,11 +7814,10 @@
         <v>3.870638832449913E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8001,11 +7832,10 @@
         <v>1.4876865781843661E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8020,11 +7850,10 @@
         <v>4.8536341637372971E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8039,11 +7868,10 @@
         <v>1.4278167858719829E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8058,11 +7886,10 @@
         <v>1.442431099712849E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8077,11 +7904,10 @@
         <v>4.8536341637372971E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8096,11 +7922,10 @@
         <v>1.473071798682213E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8115,11 +7940,10 @@
         <v>1.4180636033415789E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8134,11 +7958,10 @@
         <v>1.535631902515888E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8153,11 +7976,10 @@
         <v>3.7610948085784912E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8172,11 +7994,10 @@
         <v>1.431683637201786E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8191,11 +8012,10 @@
         <v>5.600341409444809E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8210,11 +8030,10 @@
         <v>0.99054515361785889</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F182">
@@ -8232,11 +8051,10 @@
         <v>0.1072326079010963</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8251,11 +8069,10 @@
         <v>1.440732553601265E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8270,11 +8087,10 @@
         <v>2.7015723288059231E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8289,11 +8105,10 @@
         <v>1.419346686452627E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8308,11 +8123,10 @@
         <v>1.4165459200739861E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8327,11 +8141,10 @@
         <v>1.430692709982395E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8346,11 +8159,10 @@
         <v>1.474605407565832E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8365,11 +8177,10 @@
         <v>0.96298933029174805</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F190">
@@ -8387,11 +8198,10 @@
         <v>1.4163880608975891E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8406,11 +8216,10 @@
         <v>0.33101138472557068</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8425,11 +8234,10 @@
         <v>1.6734179109334949E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8444,11 +8252,10 @@
         <v>0.9344404935836792</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>1</v>
       </c>
     </row>
@@ -8463,11 +8270,10 @@
         <v>0.70550179481506348</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8482,11 +8288,10 @@
         <v>2.5033753365278241E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8501,11 +8306,10 @@
         <v>0.99018901586532593</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8520,11 +8324,10 @@
         <v>0.99062269926071167</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8539,11 +8342,10 @@
         <v>4.6074386686086648E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8558,11 +8360,10 @@
         <v>1.418418250977993E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8577,11 +8378,10 @@
         <v>1.81398019194603E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8596,11 +8396,10 @@
         <v>1.45312836393714E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8615,11 +8414,10 @@
         <v>1.485750637948513E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8634,11 +8432,10 @@
         <v>1.442000735551119E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8653,11 +8450,10 @@
         <v>1.5895377844572071E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8672,11 +8468,10 @@
         <v>1.439071353524923E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8691,11 +8486,10 @@
         <v>1.437285449355841E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8710,11 +8504,10 @@
         <v>3.5014107823371887E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8729,11 +8522,10 @@
         <v>6.4958155155181885E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8748,11 +8540,10 @@
         <v>3.4286841750144958E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8767,11 +8558,10 @@
         <v>1.6696840524673458E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,11 +8576,10 @@
         <v>2.350792475044727E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8805,11 +8594,10 @@
         <v>1.5016200952231881E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8824,11 +8612,10 @@
         <v>0.18272317945957181</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8843,11 +8630,10 @@
         <v>1.4299606904387471E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8862,11 +8648,10 @@
         <v>1.4690680429339411E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8881,11 +8666,10 @@
         <v>1.428958121687174E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8900,11 +8684,10 @@
         <v>1.432722341269255E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8919,11 +8702,10 @@
         <v>1.464376412332058E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8938,11 +8720,10 @@
         <v>1.450670883059502E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8957,11 +8738,10 @@
         <v>1.505154836922884E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8976,11 +8756,10 @@
         <v>0.99027693271636963</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F222">
@@ -8998,11 +8777,10 @@
         <v>1.41937667503953E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9017,11 +8795,10 @@
         <v>1.511489879339933E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9036,11 +8813,10 @@
         <v>1.4576420187950131E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9055,11 +8831,10 @@
         <v>1.499436050653458E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9074,11 +8849,10 @@
         <v>1.430086884647608E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9093,11 +8867,10 @@
         <v>0.94855779409408569</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F228">
@@ -9115,11 +8888,10 @@
         <v>1.4514126814901831E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9134,11 +8906,10 @@
         <v>0.92309224605560303</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9153,11 +8924,10 @@
         <v>1.453499868512154E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9172,11 +8942,10 @@
         <v>2.066841721534729E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9191,11 +8960,10 @@
         <v>1.499436050653458E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9210,11 +8978,10 @@
         <v>1.474394928663969E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9229,11 +8996,10 @@
         <v>1.813987456262112E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9248,11 +9014,10 @@
         <v>1.428728550672531E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9267,11 +9032,10 @@
         <v>1.548778917640448E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9286,11 +9050,10 @@
         <v>1.4284747652709481E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9305,11 +9068,10 @@
         <v>1.443290896713734E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9324,11 +9086,10 @@
         <v>1.466366928070784E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9343,11 +9104,10 @@
         <v>0.95368027687072754</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9362,11 +9122,10 @@
         <v>1.5391276217997071E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9381,11 +9140,10 @@
         <v>1.430653687566519E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9400,11 +9158,10 @@
         <v>0.33107635378837591</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9419,11 +9176,10 @@
         <v>1.497282460331917E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9438,11 +9194,10 @@
         <v>1.742409914731979E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9457,11 +9212,10 @@
         <v>1.471925433725119E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9476,11 +9230,10 @@
         <v>1.4237950555980211E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9495,11 +9248,10 @@
         <v>1.6059273853898048E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9514,11 +9266,10 @@
         <v>1.431403681635857E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9533,11 +9284,10 @@
         <v>1.444817893207073E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9552,11 +9302,10 @@
         <v>1.4208178967237471E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9571,11 +9320,10 @@
         <v>1.418520882725716E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9590,11 +9338,10 @@
         <v>1.42186488956213E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9609,11 +9356,10 @@
         <v>1.4203484170138839E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9628,11 +9374,10 @@
         <v>1.420858129858971E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9647,11 +9392,10 @@
         <v>1.909849047660828E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9666,11 +9410,10 @@
         <v>2.0582988858222961E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9685,11 +9428,10 @@
         <v>1.4889274723827841E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9704,11 +9446,10 @@
         <v>1.4271075837314131E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9723,11 +9464,10 @@
         <v>4.2952138930559158E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9742,11 +9482,10 @@
         <v>2.9084954410791401E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9761,11 +9500,10 @@
         <v>1.432008668780327E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9780,11 +9518,10 @@
         <v>1.470978371798992E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9799,11 +9536,10 @@
         <v>1.415237411856651E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9818,11 +9554,10 @@
         <v>0.80958247184753418</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F266">
@@ -9840,11 +9575,10 @@
         <v>1.449122838675976E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9859,11 +9593,10 @@
         <v>1.723464205861092E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9878,11 +9611,10 @@
         <v>1.4192880131304261E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9897,11 +9629,10 @@
         <v>1.417423784732819E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9916,11 +9647,10 @@
         <v>1.432071253657341E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9935,11 +9665,10 @@
         <v>1.6941813752055172E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9954,11 +9683,10 @@
         <v>1.432632002979517E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9973,11 +9701,10 @@
         <v>1.442692801356316E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9992,11 +9719,10 @@
         <v>1.472096145153046E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10011,11 +9737,10 @@
         <v>0.77418935298919678</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F276">
@@ -10033,11 +9758,10 @@
         <v>1.532459165900946E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10052,11 +9776,10 @@
         <v>0.98984420299530029</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F278">
@@ -10074,11 +9797,10 @@
         <v>0.45866245031356812</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10093,11 +9815,10 @@
         <v>2.630318142473698E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10112,11 +9833,10 @@
         <v>1.4567907899618151E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10131,11 +9851,10 @@
         <v>1.4202450402081009E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10150,11 +9869,10 @@
         <v>0.33087736368179321</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10169,11 +9887,10 @@
         <v>1.4341377653181549E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10188,11 +9905,10 @@
         <v>1.416589226573706E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10207,11 +9923,10 @@
         <v>2.673306688666344E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10226,11 +9941,10 @@
         <v>1.4193735085427759E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10245,11 +9959,10 @@
         <v>1.430560369044542E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10264,11 +9977,10 @@
         <v>1.4518929645419121E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10283,11 +9995,10 @@
         <v>1.4211118221282961E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10302,11 +10013,10 @@
         <v>1.4310115016996861E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10321,11 +10031,10 @@
         <v>1.4289528131484991E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10340,11 +10049,10 @@
         <v>1.49515587836504E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10359,11 +10067,10 @@
         <v>0.98995274305343628</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F294">
@@ -10381,11 +10088,10 @@
         <v>1.4211118221282961E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10400,11 +10106,10 @@
         <v>2.6026703417301181E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10419,11 +10124,10 @@
         <v>0.76012647151947021</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10438,11 +10142,10 @@
         <v>1.6496829688549038E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10457,11 +10160,10 @@
         <v>1.9138375297188759E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10476,11 +10178,10 @@
         <v>1.420867349952459E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10495,11 +10196,10 @@
         <v>1.682840101420879E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10514,11 +10214,10 @@
         <v>1.441203244030476E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10533,11 +10232,10 @@
         <v>0.98433196544647217</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10552,11 +10250,10 @@
         <v>2.0427146926522251E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10571,11 +10268,10 @@
         <v>1.7700456082820889E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10590,11 +10286,10 @@
         <v>1.425646804273129E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10609,11 +10304,10 @@
         <v>1.4696444384753701E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10628,11 +10322,10 @@
         <v>1.564835570752621E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10647,11 +10340,10 @@
         <v>1.648732461035252E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10666,11 +10358,10 @@
         <v>2.8242174535989761E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10685,11 +10376,10 @@
         <v>1.4876957051455969E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10704,11 +10394,10 @@
         <v>1.6145879402756691E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10723,11 +10412,10 @@
         <v>1.6057366505265239E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10742,11 +10430,10 @@
         <v>0.33108261227607733</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10761,11 +10448,10 @@
         <v>1.4297811314463621E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10780,11 +10466,10 @@
         <v>1.446445658802986E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10799,11 +10484,10 @@
         <v>5.3077783435583108E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10818,11 +10502,10 @@
         <v>1.8533458933234211E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10837,11 +10520,10 @@
         <v>1.4533735811710359E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10856,11 +10538,10 @@
         <v>1.417165994644165E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10875,11 +10556,10 @@
         <v>1.423326041549444E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10894,11 +10574,10 @@
         <v>1.4958576299250129E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -10913,11 +10592,10 @@
         <v>3.2888308167457581E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10932,11 +10610,10 @@
         <v>0.77150613069534302</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F324">
@@ -10954,11 +10631,10 @@
         <v>1.418786402791739E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10973,11 +10649,10 @@
         <v>0.33108600974082952</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10992,11 +10667,10 @@
         <v>1.4344781637191771E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11011,11 +10685,10 @@
         <v>1.466301456093788E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11030,11 +10703,10 @@
         <v>1.427228376269341E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11049,11 +10721,10 @@
         <v>1.424647308886051E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11068,11 +10739,10 @@
         <v>1.453094929456711E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11087,11 +10757,10 @@
         <v>1.5563215129077429E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11106,11 +10775,10 @@
         <v>1.4835864305496219E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11125,11 +10793,10 @@
         <v>1.4633391052484511E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11144,11 +10811,10 @@
         <v>4.1987337172031403E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11163,11 +10829,10 @@
         <v>2.1519279107451439E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11182,11 +10847,10 @@
         <v>1.436743885278702E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11201,11 +10865,10 @@
         <v>2.751233242452145E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11220,11 +10883,10 @@
         <v>2.153009548783302E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11239,11 +10901,10 @@
         <v>0.99026709794998169</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F340">
@@ -11261,11 +10922,10 @@
         <v>1.460211351513863E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11280,11 +10940,10 @@
         <v>0.9262581467628479</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F342">
@@ -11302,11 +10961,10 @@
         <v>0.99043816328048706</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F343">
@@ -11324,11 +10982,10 @@
         <v>1.5112101100385191E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11343,11 +11000,10 @@
         <v>1.484846975654364E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11362,11 +11018,10 @@
         <v>1.532564871013165E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11381,11 +11036,10 @@
         <v>1.479363441467285E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11400,11 +11054,10 @@
         <v>1.422590203583241E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11419,11 +11072,10 @@
         <v>2.156278491020203E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11438,11 +11090,10 @@
         <v>3.6956243216991418E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11457,11 +11108,10 @@
         <v>0.86968451738357544</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F351">
@@ -11479,11 +11129,10 @@
         <v>1.427155360579491E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11498,11 +11147,10 @@
         <v>1.5967017039656639E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11517,11 +11165,10 @@
         <v>1.4621232636272911E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11536,11 +11183,10 @@
         <v>4.8498939722776413E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11555,11 +11201,10 @@
         <v>1.593179069459438E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11574,11 +11219,10 @@
         <v>0.83628404140472412</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F357">
@@ -11596,11 +11240,10 @@
         <v>1.424078177660704E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11615,11 +11258,10 @@
         <v>1.5168699435889719E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11634,11 +11276,10 @@
         <v>1.8880454823374752E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11653,11 +11294,10 @@
         <v>1.555259712040424E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11672,11 +11312,10 @@
         <v>1.448536664247513E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11691,11 +11330,10 @@
         <v>1.4416199177503589E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11710,11 +11348,10 @@
         <v>1.447875797748566E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11729,11 +11366,10 @@
         <v>0.1289968937635422</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11748,11 +11384,10 @@
         <v>1.4759715646505359E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11767,11 +11402,10 @@
         <v>0.33110448718070978</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11786,11 +11420,10 @@
         <v>1.6603235155344009E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11805,11 +11438,10 @@
         <v>1.432364713400602E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11824,11 +11456,10 @@
         <v>3.0142331495881081E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11843,11 +11474,10 @@
         <v>3.662867471575737E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11862,11 +11492,10 @@
         <v>0.57009297609329224</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F372">
@@ -11884,11 +11513,10 @@
         <v>1.4507731422781941E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11903,11 +11531,10 @@
         <v>1.449658162891865E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11922,11 +11549,10 @@
         <v>2.9438462108373638E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11941,11 +11567,10 @@
         <v>5.8386057615280151E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11960,11 +11585,10 @@
         <v>1.493493095040321E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11979,11 +11603,10 @@
         <v>1.4305770397186279E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11998,11 +11621,10 @@
         <v>1.6696825623512272E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12017,11 +11639,10 @@
         <v>1.686005108058453E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12036,11 +11657,10 @@
         <v>1.44541347399354E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12055,11 +11675,10 @@
         <v>1.5324613079428669E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12074,11 +11693,10 @@
         <v>1.4303921721875669E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12093,11 +11711,10 @@
         <v>1.908987574279308E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12112,11 +11729,10 @@
         <v>1.497398596256971E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12131,11 +11747,10 @@
         <v>1.456551253795624E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -12150,11 +11765,10 @@
         <v>1.714936830103397E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12169,11 +11783,10 @@
         <v>1.8743833526968959E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12188,11 +11801,10 @@
         <v>1.419639773666859E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12207,11 +11819,10 @@
         <v>1.59307885915041E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12226,11 +11837,10 @@
         <v>5.6882366538047791E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12245,11 +11855,10 @@
         <v>1.4869607053697109E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12264,11 +11873,10 @@
         <v>1.4269185252487659E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12283,11 +11891,10 @@
         <v>0.7079508900642395</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12302,11 +11909,10 @@
         <v>1.425945665687323E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12321,11 +11927,10 @@
         <v>0.98963832855224609</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F396">
@@ -12343,11 +11948,10 @@
         <v>0.98963832855224609</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F397">
@@ -12365,11 +11969,10 @@
         <v>0.9758988618850708</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12384,11 +11987,10 @@
         <v>1.4248542487621311E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12403,11 +12005,10 @@
         <v>0.33109673857688898</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12422,11 +12023,10 @@
         <v>3.2846435904502869E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12441,11 +12041,10 @@
         <v>0.74317431449890137</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F402">
@@ -12463,11 +12062,10 @@
         <v>1.476543676108122E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12482,11 +12080,10 @@
         <v>0.99043256044387817</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F404">
@@ -12504,11 +12101,10 @@
         <v>0.99055719375610352</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12523,11 +12119,10 @@
         <v>1.8930254504084591E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12542,11 +12137,10 @@
         <v>0.97753363847732544</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F407">
@@ -12564,11 +12158,10 @@
         <v>1.4371977187693121E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12583,11 +12176,10 @@
         <v>3.1393729150295258E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12602,11 +12194,10 @@
         <v>1.6069388017058369E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12621,11 +12212,10 @@
         <v>1.458163373172283E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12640,11 +12230,10 @@
         <v>0.33112829923629761</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12659,11 +12248,10 @@
         <v>3.8863934576511383E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12678,11 +12266,10 @@
         <v>0.79058051109313965</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F414">
@@ -12700,11 +12287,10 @@
         <v>1.6781885176897049E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12719,11 +12305,10 @@
         <v>0.99054622650146484</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12738,11 +12323,10 @@
         <v>0.3818933367729187</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12757,11 +12341,10 @@
         <v>1.430449355393648E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12776,11 +12359,10 @@
         <v>1.474492624402046E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12795,11 +12377,10 @@
         <v>1.956096105277538E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12814,11 +12395,10 @@
         <v>0.9904358983039856</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12833,11 +12413,10 @@
         <v>2.8440769761800769E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12852,11 +12431,10 @@
         <v>0.73413413763046265</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12871,11 +12449,10 @@
         <v>0.97292172908782959</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12890,11 +12467,10 @@
         <v>1.449989341199398E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12909,11 +12485,10 @@
         <v>1.415909454226494E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12928,11 +12503,10 @@
         <v>1.4521440491080281E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12947,11 +12521,10 @@
         <v>2.0451534539461139E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12966,11 +12539,10 @@
         <v>1.425235345959663E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12985,11 +12557,10 @@
         <v>3.2982267439365387E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13004,11 +12575,10 @@
         <v>1.8153846263885502E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13023,11 +12593,10 @@
         <v>1.432506088167429E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13042,11 +12611,10 @@
         <v>1.450762897729874E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13061,11 +12629,10 @@
         <v>1.425483264029026E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13080,11 +12647,10 @@
         <v>1.418055035173893E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13099,11 +12665,10 @@
         <v>0.2142396867275238</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13118,11 +12683,10 @@
         <v>0.76033949851989746</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F437">
@@ -13140,11 +12704,10 @@
         <v>1.4328016899526119E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13159,11 +12722,10 @@
         <v>1.429486181586981E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13178,11 +12740,10 @@
         <v>1.4413604512810711E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13197,11 +12758,10 @@
         <v>1.421826798468828E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13216,11 +12776,10 @@
         <v>1.4288828708231451E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13235,11 +12794,10 @@
         <v>1.4323513023555281E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13254,11 +12812,10 @@
         <v>1.674753054976463E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13273,11 +12830,10 @@
         <v>1.4596103690564631E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13292,11 +12848,10 @@
         <v>1.439925096929073E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13311,11 +12866,10 @@
         <v>2.7542617172002789E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13330,11 +12884,10 @@
         <v>1.549210771918297E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13349,11 +12902,10 @@
         <v>1.43419299274683E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13368,11 +12920,10 @@
         <v>5.304742231965065E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13387,11 +12938,10 @@
         <v>4.3181885033845901E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13406,11 +12956,10 @@
         <v>1.451199315488338E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13425,11 +12974,10 @@
         <v>0.98935645818710327</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F453">
@@ -13447,11 +12995,10 @@
         <v>1.4998931437730789E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13466,11 +13013,10 @@
         <v>3.7566423416137702E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13485,11 +13031,10 @@
         <v>2.5079444050788879E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13504,11 +13049,10 @@
         <v>1.4998931437730789E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13523,11 +13067,10 @@
         <v>0.33108982443809509</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13542,11 +13085,10 @@
         <v>1.4436531811952589E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13561,11 +13103,10 @@
         <v>1.7123091965913769E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13580,11 +13121,10 @@
         <v>2.6167664676904678E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13599,11 +13139,10 @@
         <v>1.554882247000933E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13618,11 +13157,10 @@
         <v>1.456912700086832E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13637,11 +13175,10 @@
         <v>1.447521336376667E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13656,11 +13193,10 @@
         <v>0.33109813928604132</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13675,11 +13211,10 @@
         <v>2.60113999247551E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13694,11 +13229,10 @@
         <v>1.458918582648039E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13713,11 +13247,10 @@
         <v>0.85556685924530029</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F468">
@@ -13735,11 +13268,10 @@
         <v>1.47940581664443E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13754,11 +13286,10 @@
         <v>1.5391276217997071E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13773,11 +13304,10 @@
         <v>7.3901854455471039E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13792,11 +13322,10 @@
         <v>1.4300897717475889E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13811,11 +13340,10 @@
         <v>0.33109813928604132</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13830,11 +13358,10 @@
         <v>1.9176719710230831E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13849,11 +13376,10 @@
         <v>1.99542585760355E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13868,11 +13394,10 @@
         <v>1.4263404533267019E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13887,11 +13412,10 @@
         <v>0.98963832855224609</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F477">
@@ -13909,11 +13433,10 @@
         <v>0.9758988618850708</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13928,11 +13451,10 @@
         <v>5.3373571485280991E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13947,11 +13469,10 @@
         <v>1.4540983363986021E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13966,11 +13487,10 @@
         <v>1.614073850214481E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13985,11 +13505,10 @@
         <v>0.9906008243560791</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14004,11 +13523,10 @@
         <v>0.99058771133422852</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14023,11 +13541,10 @@
         <v>0.99060338735580444</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14042,11 +13559,10 @@
         <v>8.6547434329986572E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14061,11 +13577,10 @@
         <v>0.96746224164962769</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F486">
@@ -14083,11 +13598,10 @@
         <v>2.756316214799881E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14102,11 +13616,10 @@
         <v>0.36973309516906738</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14121,11 +13634,10 @@
         <v>1.4945618808269501E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14140,11 +13652,10 @@
         <v>0.96948277950286865</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14159,11 +13670,10 @@
         <v>1.465901825577021E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14178,11 +13688,10 @@
         <v>4.6106807887554169E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14197,11 +13706,10 @@
         <v>1.477528363466263E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14216,11 +13724,10 @@
         <v>1.5343570150434971E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14235,11 +13742,10 @@
         <v>1.417656987905502E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14254,11 +13760,10 @@
         <v>1.463797129690647E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14273,11 +13778,10 @@
         <v>1.4435942284762859E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14292,11 +13796,10 @@
         <v>1.464827172458172E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14311,11 +13814,10 @@
         <v>1.4998931437730789E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14330,11 +13832,10 @@
         <v>5.8647464960813522E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14349,11 +13850,10 @@
         <v>0.9900970458984375</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14368,11 +13868,10 @@
         <v>1.6282180324196819E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14387,11 +13886,10 @@
         <v>1.434973813593388E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14406,11 +13904,10 @@
         <v>1.4658241532742981E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14425,11 +13922,10 @@
         <v>1.432296819984913E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14444,11 +13940,10 @@
         <v>2.314110845327377E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14463,11 +13958,10 @@
         <v>1.439289748668671E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14482,11 +13976,10 @@
         <v>1.614425890147686E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14501,11 +13994,10 @@
         <v>1.634343899786472E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14520,11 +14012,10 @@
         <v>0.42259520292282099</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14539,11 +14030,10 @@
         <v>8.9112080633640289E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14558,11 +14048,10 @@
         <v>7.2730280458927155E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14577,11 +14066,10 @@
         <v>1.423399616032839E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14596,11 +14084,10 @@
         <v>0.1691764444112778</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14615,11 +14102,10 @@
         <v>2.751233242452145E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14634,11 +14120,10 @@
         <v>1.608574204146862E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14653,11 +14138,10 @@
         <v>3.7772376090288162E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14672,11 +14156,10 @@
         <v>1.4273505657911301E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14691,11 +14174,10 @@
         <v>3.3029109239578247E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14710,11 +14192,10 @@
         <v>1.5879707410931591E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14729,11 +14210,10 @@
         <v>1.425262168049812E-2</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14748,11 +14228,10 @@
         <v>0.98998498916625977</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F522">
@@ -14770,11 +14249,10 @@
         <v>3.767840564250946E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14789,11 +14267,10 @@
         <v>1.4368506148457531E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14808,11 +14285,10 @@
         <v>1.5108710154891011E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14827,11 +14303,10 @@
         <v>1.4443426392972469E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14846,11 +14321,10 @@
         <v>1.425561681389809E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14865,11 +14339,10 @@
         <v>3.3029109239578247E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14884,11 +14357,10 @@
         <v>1.8536759540438649E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14903,11 +14375,10 @@
         <v>0.33116373419761658</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14922,11 +14393,10 @@
         <v>1.4188838191330429E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14941,11 +14411,10 @@
         <v>1.458894554525614E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14960,11 +14429,10 @@
         <v>1.4335743151605129E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14979,11 +14447,10 @@
         <v>5.6260392069816589E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14998,11 +14465,10 @@
         <v>1.4339638873934749E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15017,11 +14483,10 @@
         <v>1.4270070940256121E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15036,11 +14501,10 @@
         <v>0.99037140607833862</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F537">
@@ -15058,11 +14522,10 @@
         <v>1.425052527338266E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15077,11 +14540,10 @@
         <v>1.4441553503274919E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15096,11 +14558,10 @@
         <v>1.5139271505177019E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15115,11 +14576,10 @@
         <v>0.99050599336624146</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F541">
@@ -15137,11 +14597,10 @@
         <v>1.4472309499979019E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15156,11 +14615,10 @@
         <v>7.9819642007350922E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15175,11 +14633,10 @@
         <v>0.45866245031356812</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15194,11 +14651,10 @@
         <v>1.418122369796038E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15213,11 +14669,10 @@
         <v>0.73798054456710815</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F546">
@@ -15235,11 +14690,10 @@
         <v>1.505017653107643E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15254,11 +14708,10 @@
         <v>1.546580344438553E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15273,11 +14726,10 @@
         <v>1.976112462580204E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15292,11 +14744,10 @@
         <v>1.440303400158882E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15311,11 +14762,10 @@
         <v>3.5831224173307419E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15330,11 +14780,10 @@
         <v>1.500928308814764E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15349,11 +14798,10 @@
         <v>1.4350533485412599E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15368,11 +14816,10 @@
         <v>1.444018818438053E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15387,11 +14834,10 @@
         <v>1.6688920557498928E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15406,11 +14852,10 @@
         <v>0.97557741403579712</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F556">
@@ -15428,11 +14873,10 @@
         <v>2.4296313524246219E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15447,11 +14891,10 @@
         <v>1.9248044118285179E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15466,11 +14909,10 @@
         <v>1.422951463609934E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15485,11 +14927,10 @@
         <v>2.248370461165905E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15504,11 +14945,10 @@
         <v>1.4398296363651751E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15523,11 +14963,10 @@
         <v>1.4337245374917981E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15542,11 +14981,10 @@
         <v>1.4398296363651751E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15561,11 +14999,10 @@
         <v>1.4690817333757881E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15580,11 +15017,10 @@
         <v>1.437501795589924E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15599,11 +15035,10 @@
         <v>1.4211118221282961E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15618,11 +15053,10 @@
         <v>1.4383444562554359E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15637,11 +15071,10 @@
         <v>1.512823347002268E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15656,11 +15089,10 @@
         <v>0.33111584186553961</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15675,11 +15107,10 @@
         <v>0.86752557754516602</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F570">
@@ -15697,11 +15128,10 @@
         <v>1.5335056930780411E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15716,11 +15146,10 @@
         <v>1.42403207719326E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15735,11 +15164,10 @@
         <v>1.444077212363482E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15754,11 +15182,10 @@
         <v>1.4494006521999839E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15773,11 +15200,10 @@
         <v>2.2271290421485901E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15792,11 +15218,10 @@
         <v>1.532638352364302E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15811,11 +15236,10 @@
         <v>1.438625622540712E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15830,11 +15254,10 @@
         <v>1.738713122904301E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -15849,11 +15272,10 @@
         <v>0.33099612593650818</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15868,11 +15290,10 @@
         <v>0.99038410186767578</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F580">
@@ -15890,11 +15311,10 @@
         <v>1.464824378490448E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15909,11 +15329,10 @@
         <v>1.5578959137201309E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15928,11 +15347,10 @@
         <v>3.051342815160751E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15947,11 +15365,10 @@
         <v>2.597642503678799E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15966,11 +15383,10 @@
         <v>1.468702312558889E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15985,11 +15401,10 @@
         <v>1.437482889741659E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16004,11 +15419,10 @@
         <v>1.421238202601671E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16023,11 +15437,10 @@
         <v>1.4796219766139981E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16042,11 +15455,10 @@
         <v>1.4295493252575399E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16061,11 +15473,10 @@
         <v>1.417011488229036E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16080,11 +15491,10 @@
         <v>1.8894372507929798E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16099,11 +15509,10 @@
         <v>1.4234397560358049E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16118,11 +15527,10 @@
         <v>1.4231019653379921E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16137,11 +15545,10 @@
         <v>1.425527408719063E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16156,11 +15563,10 @@
         <v>2.1140387281775471E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16175,11 +15581,10 @@
         <v>2.1021135151386261E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16194,11 +15599,10 @@
         <v>1.528054568916559E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16213,11 +15617,10 @@
         <v>1.6740761697292331E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16232,11 +15635,10 @@
         <v>1.4682730659842489E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16251,11 +15653,10 @@
         <v>1.450463011860847E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16270,11 +15671,10 @@
         <v>2.1490350365638729E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16289,11 +15689,10 @@
         <v>4.3602835386991501E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16308,11 +15707,10 @@
         <v>1.416738983243704E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16327,11 +15725,10 @@
         <v>2.139494568109512E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16346,11 +15743,10 @@
         <v>1.43843237310648E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16365,11 +15761,10 @@
         <v>1.431058533489704E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16384,11 +15779,10 @@
         <v>1.451561413705349E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16403,11 +15797,10 @@
         <v>1.451987214386463E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16422,11 +15815,10 @@
         <v>1.42646785825491E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16441,11 +15833,10 @@
         <v>0.33099612593650818</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16460,11 +15851,10 @@
         <v>2.510762773454189E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16479,11 +15869,10 @@
         <v>0.97199469804763794</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F612">
@@ -16501,11 +15890,10 @@
         <v>1.5313464216887949E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16520,11 +15908,10 @@
         <v>1.4177443459630011E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16539,11 +15926,10 @@
         <v>1.5145359560847281E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16558,11 +15944,10 @@
         <v>1.4423558488488201E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16577,11 +15962,10 @@
         <v>4.6920619904994958E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16596,11 +15980,10 @@
         <v>7.9043194651603699E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16615,11 +15998,10 @@
         <v>1.584118232131004E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16634,11 +16016,10 @@
         <v>1.4213490299880499E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16653,11 +16034,10 @@
         <v>1.4299324713647371E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16672,11 +16052,10 @@
         <v>1.42646785825491E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16691,11 +16070,10 @@
         <v>1.4746401458978649E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16710,11 +16088,10 @@
         <v>1.4385459013283249E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16729,11 +16106,10 @@
         <v>1.4363935217261309E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16748,11 +16124,10 @@
         <v>0.8513028621673584</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F626">
@@ -16770,11 +16145,10 @@
         <v>1.6588937491178509E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16789,11 +16163,10 @@
         <v>1.4283920638263231E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16808,11 +16181,10 @@
         <v>1.433137804269791E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16827,11 +16199,10 @@
         <v>1.5813263133168221E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16846,11 +16217,10 @@
         <v>1.5360278077423571E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16865,11 +16235,10 @@
         <v>0.33109703660011292</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16884,11 +16253,10 @@
         <v>1.6780650243163109E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16903,11 +16271,10 @@
         <v>2.1576551720499989E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16922,11 +16289,10 @@
         <v>1.4689940959215161E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16941,11 +16307,10 @@
         <v>0.33109930157661438</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16960,11 +16325,10 @@
         <v>1.41686825081706E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16979,11 +16343,10 @@
         <v>0.90738171339035034</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F638">
@@ -17001,11 +16364,10 @@
         <v>1.511833444237709E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17020,11 +16382,10 @@
         <v>1.442843303084373E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17039,11 +16400,10 @@
         <v>1.4673903584480291E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17058,11 +16418,10 @@
         <v>1.458586845546961E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E705" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
     </row>
@@ -17077,11 +16436,10 @@
         <v>0.9906383752822876</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D706" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17096,11 +16454,10 @@
         <v>1.4529897831380371E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17115,11 +16472,10 @@
         <v>0.20335675776004791</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17134,11 +16490,10 @@
         <v>0.99058502912521362</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17153,11 +16508,10 @@
         <v>1.478417124599218E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17172,11 +16526,10 @@
         <v>0.99059605598449707</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17191,11 +16544,10 @@
         <v>0.99058902263641357</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17210,11 +16562,10 @@
         <v>1.441829279065132E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17229,11 +16580,10 @@
         <v>1.432447507977486E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17248,11 +16598,10 @@
         <v>0.33087736368179321</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17267,11 +16616,10 @@
         <v>1.460644323378801E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17286,11 +16634,10 @@
         <v>1.4193239621818071E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17305,11 +16652,10 @@
         <v>1.420413237065077E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17324,11 +16670,10 @@
         <v>1.474579889327288E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17343,11 +16688,10 @@
         <v>0.3310905396938324</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17362,11 +16706,10 @@
         <v>1.494104228913784E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17381,11 +16724,10 @@
         <v>1.4385932125151161E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17400,11 +16742,10 @@
         <v>1.926783844828606E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17419,11 +16760,10 @@
         <v>1.442433148622513E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17438,11 +16778,10 @@
         <v>1.7208470031619068E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17457,11 +16796,10 @@
         <v>1.4249118976294989E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17476,11 +16814,10 @@
         <v>0.99039661884307861</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F664">
@@ -17498,11 +16835,10 @@
         <v>1.491441763937473E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17517,11 +16853,10 @@
         <v>1.456815470010042E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17536,11 +16871,10 @@
         <v>2.0090071484446529E-2</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17555,11 +16889,10 @@
         <v>1.9849937409162521E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17574,11 +16907,10 @@
         <v>1.6217350959777829E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17593,11 +16925,10 @@
         <v>2.838875167071819E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17612,11 +16943,10 @@
         <v>1.418295595794916E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17631,11 +16961,10 @@
         <v>0.33109873533248901</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17650,11 +16979,10 @@
         <v>1.417877059429884E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17669,11 +16997,10 @@
         <v>0.33112829923629761</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17688,11 +17015,10 @@
         <v>1.519658230245113E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17707,11 +17033,10 @@
         <v>3.007734194397926E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17726,11 +17051,10 @@
         <v>1.4409235678613189E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17745,11 +17069,10 @@
         <v>2.62035708874464E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17764,11 +17087,10 @@
         <v>1.7163930460810661E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17783,11 +17105,10 @@
         <v>1.8922338262200359E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17802,11 +17123,10 @@
         <v>4.1781198233366013E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17821,11 +17141,10 @@
         <v>1.8046882003545761E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17840,11 +17159,10 @@
         <v>1.441004872322083E-2</v>
       </c>
       <c r="D683">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E683">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17859,11 +17177,10 @@
         <v>1.578830927610397E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17878,11 +17195,10 @@
         <v>0.97787344455718994</v>
       </c>
       <c r="D685">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E685">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17897,11 +17213,10 @@
         <v>1.436617691069841E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17916,11 +17231,10 @@
         <v>1.5156073495745661E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17935,11 +17249,10 @@
         <v>0.88017284870147705</v>
       </c>
       <c r="D688">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E688">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F688">
@@ -17957,11 +17270,10 @@
         <v>4.2471494525671012E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17976,11 +17288,10 @@
         <v>1.5251334756612779E-2</v>
       </c>
       <c r="D690">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E690">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17995,11 +17306,10 @@
         <v>1.470250077545643E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18014,11 +17324,10 @@
         <v>1.429266482591629E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18033,11 +17342,10 @@
         <v>2.2174093872308731E-2</v>
       </c>
       <c r="D693">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18052,11 +17360,10 @@
         <v>1.44985020160675E-2</v>
       </c>
       <c r="D694">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E694">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18071,11 +17378,10 @@
         <v>4.2384430766105652E-2</v>
       </c>
       <c r="D695">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E695">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18090,11 +17396,10 @@
         <v>1.4352915808558461E-2</v>
       </c>
       <c r="D696">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E696">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18109,11 +17414,10 @@
         <v>1.432850304991007E-2</v>
       </c>
       <c r="D697">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18128,11 +17432,10 @@
         <v>6.8710632622241974E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18147,11 +17450,10 @@
         <v>1.4178723096847531E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18166,11 +17468,10 @@
         <v>1.4370322227478031E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18185,11 +17486,10 @@
         <v>1.434250269085169E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18204,11 +17504,10 @@
         <v>0.49853077530860901</v>
       </c>
       <c r="D702">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E702">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18223,11 +17522,10 @@
         <v>0.99021834135055542</v>
       </c>
       <c r="D703">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E703">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18242,11 +17540,10 @@
         <v>1.5377422794699671E-2</v>
       </c>
       <c r="D704">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E704">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18261,11 +17558,10 @@
         <v>1.576702855527401E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18280,11 +17576,10 @@
         <v>1.4716211706399919E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E706">
-        <f t="shared" ref="E706:E727" si="22">IF(ISBLANK(F706),D706,F706)</f>
         <v>0</v>
       </c>
     </row>
@@ -18299,11 +17594,10 @@
         <v>1.455272641032934E-2</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D727" si="23">IF(C707&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D707:D727" si="11">IF(C707&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18318,11 +17612,10 @@
         <v>1.44276600331068E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18337,11 +17630,10 @@
         <v>1.4864444732666021E-2</v>
       </c>
       <c r="D709">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E709">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18356,11 +17648,10 @@
         <v>1.7202310264110569E-2</v>
       </c>
       <c r="D710">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E710">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18375,11 +17666,10 @@
         <v>1.4524225145578379E-2</v>
       </c>
       <c r="D711">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E711">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18394,11 +17684,10 @@
         <v>1.4323633164167401E-2</v>
       </c>
       <c r="D712">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E712">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18413,11 +17702,10 @@
         <v>1.4187437482178209E-2</v>
       </c>
       <c r="D713">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18432,11 +17720,10 @@
         <v>1.451918855309486E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18451,11 +17738,10 @@
         <v>1.4538413845002649E-2</v>
       </c>
       <c r="D715">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E715">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18470,11 +17756,10 @@
         <v>1.502734795212746E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18489,11 +17774,10 @@
         <v>1.4477125369012359E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18508,11 +17792,10 @@
         <v>1.443666033446789E-2</v>
       </c>
       <c r="D718">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E718">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18527,11 +17810,10 @@
         <v>1.5696000307798389E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18546,11 +17828,10 @@
         <v>1.42862843349576E-2</v>
       </c>
       <c r="D720">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E720">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18565,11 +17846,10 @@
         <v>1.507378276437521E-2</v>
       </c>
       <c r="D721">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E721">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18584,11 +17864,10 @@
         <v>1.6654510051012039E-2</v>
       </c>
       <c r="D722">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E722">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18603,11 +17882,10 @@
         <v>1.5430630184710029E-2</v>
       </c>
       <c r="D723">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E723">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18622,11 +17900,10 @@
         <v>2.447472512722015E-2</v>
       </c>
       <c r="D724">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E724">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18641,11 +17918,10 @@
         <v>1.5071270056068901E-2</v>
       </c>
       <c r="D725">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E725">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18660,11 +17936,10 @@
         <v>1.516866218298674E-2</v>
       </c>
       <c r="D726">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E726">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18679,11 +17954,10 @@
         <v>0.99059242010116577</v>
       </c>
       <c r="D727">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E727">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F727">
